--- a/public/DataTransaksi/transaksi_adminis.xlsx
+++ b/public/DataTransaksi/transaksi_adminis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atmajabagastia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D4A077-E541-8F4C-9DBF-E397FBD0A50E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57EF774-C29A-A94C-BA63-74387449E83C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{15B542A3-7D55-44D5-90E1-04B8C88E8512}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -42,10 +42,70 @@
     <t>Tanggal Akhir</t>
   </si>
   <si>
-    <t>Transaksi 3</t>
-  </si>
-  <si>
-    <t>Panda merah dengan bulu kemerahan dan wajah yang selalu tersenyum adalah salah satu hewan paling imut. Di Australia, koala dengan wajah bulat dan telinga berbulu membuat hati meleleh. Quokka dikenal sebagai hewan paling bahagia karena senyumannya. Rubah fennec dengan telinga besar dan mata cerahnya juga tak kalah lucu. Bayi anjing laut dengan mata besar dan bulu putih, serta penguin kecil yang berjalan beriringan di pantai, menambah daftar hewan imut yang mempesona hati kita semua.</t>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 2</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 4</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 3</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 5</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 4</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 6</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 5</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 7</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 6</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 8</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 7</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 9</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 8</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 10</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 9</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 11</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 10</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 12</t>
+  </si>
+  <si>
+    <t>Transaksi 1 Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 1Transaksi 11</t>
+  </si>
+  <si>
+    <t>Transaksi 3 Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 3Transaksi 13</t>
   </si>
 </sst>
 </file>
@@ -435,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206A64CF-19A1-4A2E-B3D4-D8496A498175}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="208" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -474,13 +534,13 @@
         <v>12324</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>45181</v>
+        <v>45334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -491,13 +551,353 @@
         <v>22513</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>45182</v>
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32702</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>42891</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>53080</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>63269</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>73458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>83647</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>93836</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>104025</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>114214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>124403</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>134592</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>144781</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>154970</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>165159</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>175348</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>185537</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>195726</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>205915</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>216104</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>226293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45355</v>
       </c>
     </row>
   </sheetData>
